--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value982.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value982.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.168249650445777</v>
+        <v>0.7234318852424622</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.9965925812721252</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.8978086113929749</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>3.25597071647644</v>
       </c>
       <c r="E1">
-        <v>0.8939696471754206</v>
+        <v>1.619717001914978</v>
       </c>
     </row>
   </sheetData>
